--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MICHIGAN_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MICHIGAN_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1152"/>
+  <dimension ref="A1:D1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C35">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C43">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C48">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C75">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C79">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C83">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C91">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C93">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C129">
@@ -2115,7 +2115,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C133">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C140">
@@ -2406,7 +2406,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C165">
@@ -2663,7 +2663,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C174">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C177">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C195">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C196">
@@ -3032,12 +3032,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C202">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C210">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C215">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C221">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C224">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C229">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C244">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C252">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C257">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C259">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C260">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C268">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C276">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C279">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C290">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C292">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C294">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C295">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C296">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C298">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C302">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C308">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C312">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C318">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C323">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C327">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C332">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C343">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C356">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C361">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C367">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C370">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C380">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C385">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C389">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C391">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C395">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C404">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C406">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C407">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C410">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C415">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C421">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C426">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C428">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C433">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C436">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C444">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C447">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C450">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C452">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C454">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C460">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C464">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C467">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C470">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C472">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C473">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C475">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C477">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C482">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C483">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C485">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C489">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C507">
@@ -7690,7 +7690,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C558">
@@ -8098,7 +8098,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C589">
@@ -8163,7 +8163,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C594">
@@ -8254,7 +8254,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C601">
@@ -8298,7 +8298,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C604">
@@ -8311,7 +8311,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C605">
@@ -8350,7 +8350,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C608">
@@ -8376,7 +8376,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C610">
@@ -8498,7 +8498,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C619">
@@ -8602,7 +8602,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C627">
@@ -8654,7 +8654,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C631">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C634">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C645">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C649">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C651">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C656">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C658">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C693">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C707">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C743">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C751">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C766">
@@ -10445,7 +10445,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C768">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C780">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C781">
@@ -10757,7 +10757,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C792">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C795">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C801">
@@ -11043,7 +11043,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C814">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C822">
@@ -11264,7 +11264,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C831">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C834">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C835">
@@ -11329,7 +11329,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C836">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C840">
@@ -11498,7 +11498,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C849">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C852">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C861">
@@ -11685,7 +11685,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C863">
@@ -11737,7 +11737,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C867">
@@ -11750,7 +11750,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C868">
@@ -11776,7 +11776,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C870">
@@ -11802,7 +11802,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C872">
@@ -11968,7 +11968,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C884">
@@ -12033,7 +12033,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C889">
@@ -12137,7 +12137,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C897">
@@ -12202,7 +12202,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C902">
@@ -12254,7 +12254,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C906">
@@ -12280,7 +12280,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C908">
@@ -12384,7 +12384,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C916">
@@ -12397,7 +12397,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C917">
@@ -12410,7 +12410,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C918">
@@ -12423,7 +12423,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C919">
@@ -12880,7 +12880,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C953">
@@ -13210,7 +13210,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C978">
@@ -13358,7 +13358,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C989">
@@ -13371,7 +13371,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C990">
@@ -13384,7 +13384,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C991">
@@ -13475,7 +13475,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1003">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1005">
@@ -13675,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1021">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1022">
@@ -13987,7 +13987,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1037">
@@ -14026,7 +14026,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1040">
@@ -14039,7 +14039,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1041">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1042">
@@ -14117,7 +14117,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1047">
@@ -14182,7 +14182,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1052">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1053">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1054">
@@ -14325,7 +14325,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1063">
@@ -14351,7 +14351,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1065">
@@ -14364,7 +14364,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1066">
@@ -14416,7 +14416,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1070">
@@ -14559,7 +14559,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1102">
@@ -15024,7 +15024,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1116">
@@ -15219,7 +15219,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1131">
@@ -15232,7 +15232,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1132">
@@ -15245,7 +15245,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1133">
@@ -15310,7 +15310,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1138">
@@ -15362,7 +15362,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1142">
@@ -15414,7 +15414,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1146">
@@ -15422,41 +15422,6 @@
       </c>
       <c r="D1146">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
